--- a/S7G2_Titan/2022_Nov_03_MD_Controller_IO_Map_32_bit_S7G2_Titan_Teknic_Motors.xlsx
+++ b/S7G2_Titan/2022_Nov_03_MD_Controller_IO_Map_32_bit_S7G2_Titan_Teknic_Motors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46021662-ABA1-4566-965A-50EA7FE9B2A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BB0F1D-546E-4AE4-A50A-2837380236E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7750" uniqueCount="1015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7771" uniqueCount="1040">
   <si>
     <t>A</t>
   </si>
@@ -3076,18 +3076,6 @@
     <t>A_B_STEP</t>
   </si>
   <si>
-    <t>A_B_HLFB_OUT</t>
-  </si>
-  <si>
-    <t>A_A_HLFB_OUT</t>
-  </si>
-  <si>
-    <t>C_B_HLFB_OUT</t>
-  </si>
-  <si>
-    <t>C_A_HLFB_OUT</t>
-  </si>
-  <si>
     <t>LS_1</t>
   </si>
   <si>
@@ -3098,6 +3086,93 @@
   </si>
   <si>
     <t>JTAG Reset</t>
+  </si>
+  <si>
+    <t>LS_05</t>
+  </si>
+  <si>
+    <t>LS_08</t>
+  </si>
+  <si>
+    <t>LS_09</t>
+  </si>
+  <si>
+    <t>LS_06</t>
+  </si>
+  <si>
+    <t>LS_07</t>
+  </si>
+  <si>
+    <t>WF_B_Enable</t>
+  </si>
+  <si>
+    <t>WF_B_DIR</t>
+  </si>
+  <si>
+    <t>WF_B_STEP</t>
+  </si>
+  <si>
+    <t>WF_A_ENABLE</t>
+  </si>
+  <si>
+    <t>WF_A_DIR</t>
+  </si>
+  <si>
+    <t>WF_A_STEP</t>
+  </si>
+  <si>
+    <t>Z_A_ENABLE</t>
+  </si>
+  <si>
+    <t>Z_A_DIR</t>
+  </si>
+  <si>
+    <t>Z_A_STEP</t>
+  </si>
+  <si>
+    <t>Z_B_ENABLE</t>
+  </si>
+  <si>
+    <t>Z_B_DIR</t>
+  </si>
+  <si>
+    <t>Z_B_STEP</t>
+  </si>
+  <si>
+    <t>Y_A_ENABLE</t>
+  </si>
+  <si>
+    <t>Y_A_DIR</t>
+  </si>
+  <si>
+    <t>Y_A_STEP</t>
+  </si>
+  <si>
+    <t>Y_B_ENABLE</t>
+  </si>
+  <si>
+    <t>Y_B_DIR</t>
+  </si>
+  <si>
+    <t>Y_B_STEP</t>
+  </si>
+  <si>
+    <t>X_A_ENABLE</t>
+  </si>
+  <si>
+    <t>X_A_DIR</t>
+  </si>
+  <si>
+    <t>X_A_STEP</t>
+  </si>
+  <si>
+    <t>X_B_ENABLE</t>
+  </si>
+  <si>
+    <t>X_B_DIR</t>
+  </si>
+  <si>
+    <t>X_B_STEP</t>
   </si>
 </sst>
 </file>
@@ -3376,6 +3451,12 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3393,12 +3474,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3860,8 +3935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9ED81-804C-4EFA-84D0-1A12C997A3D1}">
   <dimension ref="A3:AD236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3875,13 +3950,15 @@
     <col min="8" max="8" width="18.19921875" style="20" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.06640625" style="20"/>
     <col min="10" max="10" width="53.59765625" style="20" customWidth="1"/>
-    <col min="11" max="16" width="9.06640625" style="20"/>
-    <col min="17" max="17" width="12.265625" style="20" customWidth="1"/>
-    <col min="18" max="18" width="9.06640625" style="20"/>
+    <col min="11" max="16" width="0" style="20" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.265625" style="20" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="0" style="20" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="14.1328125" style="20" customWidth="1"/>
     <col min="20" max="20" width="13" style="20" customWidth="1"/>
     <col min="21" max="21" width="11.59765625" style="20" customWidth="1"/>
-    <col min="22" max="16384" width="9.06640625" style="20"/>
+    <col min="22" max="29" width="9.06640625" style="20"/>
+    <col min="30" max="30" width="19.33203125" style="20" customWidth="1"/>
+    <col min="31" max="16384" width="9.06640625" style="20"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:30" x14ac:dyDescent="0.35">
@@ -7545,7 +7622,7 @@
         <v>467</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="K58" s="21" t="s">
         <v>284</v>
@@ -7631,7 +7708,7 @@
         <v>479</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="K59" s="21" t="s">
         <v>284</v>
@@ -7803,7 +7880,7 @@
         <v>507</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="K61" s="21" t="s">
         <v>284</v>
@@ -8671,7 +8748,7 @@
         <v>284</v>
       </c>
       <c r="J75" s="21" t="s">
-        <v>1014</v>
+        <v>1010</v>
       </c>
       <c r="K75" s="21" t="s">
         <v>284</v>
@@ -8757,7 +8834,7 @@
         <v>284</v>
       </c>
       <c r="J76" s="21" t="s">
-        <v>1010</v>
+        <v>997</v>
       </c>
       <c r="K76" s="21" t="s">
         <v>284</v>
@@ -8931,7 +9008,7 @@
         <v>284</v>
       </c>
       <c r="J78" s="21" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="K78" s="21" t="s">
         <v>284</v>
@@ -9017,7 +9094,7 @@
         <v>284</v>
       </c>
       <c r="J79" s="21" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
       <c r="K79" s="21" t="s">
         <v>284</v>
@@ -9103,7 +9180,7 @@
         <v>284</v>
       </c>
       <c r="J80" s="21" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="K80" s="21" t="s">
         <v>284</v>
@@ -9189,7 +9266,7 @@
         <v>284</v>
       </c>
       <c r="J81" s="21" t="s">
-        <v>1009</v>
+        <v>1000</v>
       </c>
       <c r="K81" s="21" t="s">
         <v>284</v>
@@ -9274,8 +9351,8 @@
       <c r="I82" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J82" s="21" t="s">
-        <v>1003</v>
+      <c r="J82" s="20" t="s">
+        <v>1002</v>
       </c>
       <c r="K82" s="21" t="s">
         <v>284</v>
@@ -9361,7 +9438,7 @@
         <v>284</v>
       </c>
       <c r="J83" s="21" t="s">
-        <v>1000</v>
+        <v>1004</v>
       </c>
       <c r="K83" s="21" t="s">
         <v>284</v>
@@ -9446,8 +9523,8 @@
       <c r="I84" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J84" s="20" t="s">
-        <v>1002</v>
+      <c r="J84" s="21" t="s">
+        <v>1005</v>
       </c>
       <c r="K84" s="21" t="s">
         <v>284</v>
@@ -9532,8 +9609,8 @@
       <c r="I85" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J85" s="20" t="s">
-        <v>1008</v>
+      <c r="J85" s="21" t="s">
+        <v>1006</v>
       </c>
       <c r="K85" s="21" t="s">
         <v>284</v>
@@ -9641,7 +9718,9 @@
       <c r="B87" s="21" t="s">
         <v>580</v>
       </c>
-      <c r="C87" s="21"/>
+      <c r="C87" s="21" t="s">
+        <v>206</v>
+      </c>
       <c r="D87" s="21"/>
       <c r="E87" s="21"/>
       <c r="F87" s="21">
@@ -9656,9 +9735,7 @@
       <c r="I87" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J87" s="21" t="s">
-        <v>1004</v>
-      </c>
+      <c r="J87" s="21"/>
       <c r="K87" s="21" t="s">
         <v>284</v>
       </c>
@@ -9727,7 +9804,9 @@
       <c r="B88" s="21" t="s">
         <v>584</v>
       </c>
-      <c r="C88" s="21"/>
+      <c r="C88" s="21" t="s">
+        <v>206</v>
+      </c>
       <c r="D88" s="21"/>
       <c r="E88" s="21"/>
       <c r="F88" s="21">
@@ -9742,9 +9821,7 @@
       <c r="I88" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J88" s="21" t="s">
-        <v>1005</v>
-      </c>
+      <c r="J88" s="21"/>
       <c r="K88" s="21" t="s">
         <v>284</v>
       </c>
@@ -9813,7 +9890,9 @@
       <c r="B89" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="C89" s="21"/>
+      <c r="C89" s="21" t="s">
+        <v>206</v>
+      </c>
       <c r="D89" s="21"/>
       <c r="E89" s="21"/>
       <c r="F89" s="21">
@@ -9829,7 +9908,7 @@
         <v>244</v>
       </c>
       <c r="J89" s="21" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="K89" s="21" t="s">
         <v>284</v>
@@ -9899,7 +9978,9 @@
       <c r="B90" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C90" s="21"/>
+      <c r="C90" s="21" t="s">
+        <v>206</v>
+      </c>
       <c r="D90" s="21"/>
       <c r="E90" s="21"/>
       <c r="F90" s="21">
@@ -9915,7 +9996,7 @@
         <v>591</v>
       </c>
       <c r="J90" s="21" t="s">
-        <v>1007</v>
+        <v>1014</v>
       </c>
       <c r="K90" s="21" t="s">
         <v>284</v>
@@ -10168,7 +10249,9 @@
       <c r="I94" s="21" t="s">
         <v>423</v>
       </c>
-      <c r="J94" s="21"/>
+      <c r="J94" s="21" t="s">
+        <v>1015</v>
+      </c>
       <c r="K94" s="21" t="s">
         <v>284</v>
       </c>
@@ -10258,7 +10341,9 @@
       <c r="I95" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="J95" s="21"/>
+      <c r="J95" s="21" t="s">
+        <v>1012</v>
+      </c>
       <c r="K95" s="21" t="s">
         <v>284</v>
       </c>
@@ -10321,30 +10406,30 @@
       </c>
     </row>
     <row r="96" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A96" s="53">
+      <c r="A96" s="47">
         <v>88</v>
       </c>
-      <c r="B96" s="53" t="s">
+      <c r="B96" s="47" t="s">
         <v>154</v>
       </c>
-      <c r="C96" s="53" t="s">
+      <c r="C96" s="47" t="s">
         <v>939</v>
       </c>
-      <c r="D96" s="53">
+      <c r="D96" s="47">
         <v>7</v>
       </c>
-      <c r="E96" s="54" t="s">
+      <c r="E96" s="48" t="s">
         <v>947</v>
       </c>
-      <c r="F96" s="54"/>
-      <c r="G96" s="54"/>
-      <c r="H96" s="53" t="s">
+      <c r="F96" s="48"/>
+      <c r="G96" s="48"/>
+      <c r="H96" s="47" t="s">
         <v>611</v>
       </c>
-      <c r="I96" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J96" s="53"/>
+      <c r="I96" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="J96" s="47"/>
       <c r="K96" s="21" t="s">
         <v>284</v>
       </c>
@@ -10407,30 +10492,30 @@
       </c>
     </row>
     <row r="97" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A97" s="53">
+      <c r="A97" s="47">
         <v>89</v>
       </c>
-      <c r="B97" s="53" t="s">
+      <c r="B97" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="53" t="s">
+      <c r="C97" s="47" t="s">
         <v>939</v>
       </c>
-      <c r="D97" s="53">
+      <c r="D97" s="47">
         <v>5</v>
       </c>
-      <c r="E97" s="54" t="s">
+      <c r="E97" s="48" t="s">
         <v>947</v>
       </c>
-      <c r="F97" s="54"/>
-      <c r="G97" s="54"/>
-      <c r="H97" s="53" t="s">
+      <c r="F97" s="48"/>
+      <c r="G97" s="48"/>
+      <c r="H97" s="47" t="s">
         <v>614</v>
       </c>
-      <c r="I97" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J97" s="53"/>
+      <c r="I97" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="J97" s="47"/>
       <c r="K97" s="21" t="s">
         <v>284</v>
       </c>
@@ -10493,30 +10578,30 @@
       </c>
     </row>
     <row r="98" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A98" s="53">
+      <c r="A98" s="47">
         <v>90</v>
       </c>
-      <c r="B98" s="53" t="s">
+      <c r="B98" s="47" t="s">
         <v>158</v>
       </c>
-      <c r="C98" s="53" t="s">
+      <c r="C98" s="47" t="s">
         <v>939</v>
       </c>
-      <c r="D98" s="53">
+      <c r="D98" s="47">
         <v>3</v>
       </c>
-      <c r="E98" s="54" t="s">
+      <c r="E98" s="48" t="s">
         <v>947</v>
       </c>
-      <c r="F98" s="54"/>
-      <c r="G98" s="54"/>
-      <c r="H98" s="53" t="s">
+      <c r="F98" s="48"/>
+      <c r="G98" s="48"/>
+      <c r="H98" s="47" t="s">
         <v>618</v>
       </c>
-      <c r="I98" s="53" t="s">
-        <v>284</v>
-      </c>
-      <c r="J98" s="53"/>
+      <c r="I98" s="47" t="s">
+        <v>284</v>
+      </c>
+      <c r="J98" s="47"/>
       <c r="K98" s="21" t="s">
         <v>284</v>
       </c>
@@ -10579,30 +10664,30 @@
       </c>
     </row>
     <row r="99" spans="1:30" x14ac:dyDescent="0.35">
-      <c r="A99" s="53">
+      <c r="A99" s="47">
         <v>91</v>
       </c>
-      <c r="B99" s="53" t="s">
+      <c r="B99" s="47" t="s">
         <v>156</v>
       </c>
-      <c r="C99" s="53" t="s">
+      <c r="C99" s="47" t="s">
         <v>939</v>
       </c>
-      <c r="D99" s="53">
+      <c r="D99" s="47">
         <v>1</v>
       </c>
-      <c r="E99" s="54" t="s">
+      <c r="E99" s="48" t="s">
         <v>947</v>
       </c>
-      <c r="F99" s="54"/>
-      <c r="G99" s="54"/>
-      <c r="H99" s="53" t="s">
+      <c r="F99" s="48"/>
+      <c r="G99" s="48"/>
+      <c r="H99" s="47" t="s">
         <v>155</v>
       </c>
-      <c r="I99" s="53" t="s">
+      <c r="I99" s="47" t="s">
         <v>374</v>
       </c>
-      <c r="J99" s="53"/>
+      <c r="J99" s="47"/>
       <c r="K99" s="21" t="s">
         <v>284</v>
       </c>
@@ -10690,7 +10775,9 @@
       <c r="I100" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="J100" s="21"/>
+      <c r="J100" s="21" t="s">
+        <v>1013</v>
+      </c>
       <c r="K100" s="21" t="s">
         <v>284</v>
       </c>
@@ -10778,7 +10865,9 @@
       <c r="I101" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J101" s="21"/>
+      <c r="J101" s="21" t="s">
+        <v>1016</v>
+      </c>
       <c r="K101" s="21" t="s">
         <v>284</v>
       </c>
@@ -10864,7 +10953,9 @@
       <c r="I102" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J102" s="21"/>
+      <c r="J102" s="21" t="s">
+        <v>1017</v>
+      </c>
       <c r="K102" s="21" t="s">
         <v>284</v>
       </c>
@@ -10950,7 +11041,9 @@
       <c r="I103" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J103" s="21"/>
+      <c r="J103" s="21" t="s">
+        <v>1018</v>
+      </c>
       <c r="K103" s="21" t="s">
         <v>284</v>
       </c>
@@ -11036,7 +11129,9 @@
       <c r="I104" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J104" s="21"/>
+      <c r="J104" s="21" t="s">
+        <v>1019</v>
+      </c>
       <c r="K104" s="21" t="s">
         <v>284</v>
       </c>
@@ -11198,7 +11293,9 @@
       <c r="I107" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J107" s="21"/>
+      <c r="J107" s="21" t="s">
+        <v>1020</v>
+      </c>
       <c r="K107" s="21" t="s">
         <v>284</v>
       </c>
@@ -11286,7 +11383,9 @@
       <c r="I108" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J108" s="21"/>
+      <c r="J108" s="21" t="s">
+        <v>1021</v>
+      </c>
       <c r="K108" s="21" t="s">
         <v>284</v>
       </c>
@@ -11374,7 +11473,9 @@
       <c r="I109" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J109" s="21"/>
+      <c r="J109" s="21" t="s">
+        <v>1025</v>
+      </c>
       <c r="K109" s="21" t="s">
         <v>284</v>
       </c>
@@ -11462,7 +11563,9 @@
       <c r="I110" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J110" s="21"/>
+      <c r="J110" s="21" t="s">
+        <v>1026</v>
+      </c>
       <c r="K110" s="21" t="s">
         <v>284</v>
       </c>
@@ -11548,7 +11651,9 @@
       <c r="I111" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J111" s="21"/>
+      <c r="J111" s="21" t="s">
+        <v>1027</v>
+      </c>
       <c r="K111" s="21" t="s">
         <v>284</v>
       </c>
@@ -11636,7 +11741,9 @@
       <c r="I112" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J112" s="21"/>
+      <c r="J112" s="21" t="s">
+        <v>1022</v>
+      </c>
       <c r="K112" s="21" t="s">
         <v>284</v>
       </c>
@@ -11724,7 +11831,9 @@
       <c r="I113" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J113" s="21"/>
+      <c r="J113" s="21" t="s">
+        <v>1023</v>
+      </c>
       <c r="K113" s="21" t="s">
         <v>284</v>
       </c>
@@ -11812,7 +11921,9 @@
       <c r="I114" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J114" s="21"/>
+      <c r="J114" s="21" t="s">
+        <v>1024</v>
+      </c>
       <c r="K114" s="21" t="s">
         <v>284</v>
       </c>
@@ -11900,7 +12011,9 @@
       <c r="I115" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J115" s="21"/>
+      <c r="J115" s="21" t="s">
+        <v>1031</v>
+      </c>
       <c r="K115" s="21" t="s">
         <v>284</v>
       </c>
@@ -11988,7 +12101,9 @@
       <c r="I116" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J116" s="21"/>
+      <c r="J116" s="21" t="s">
+        <v>1032</v>
+      </c>
       <c r="K116" s="21" t="s">
         <v>284</v>
       </c>
@@ -12076,7 +12191,9 @@
       <c r="I117" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J117" s="21"/>
+      <c r="J117" s="21" t="s">
+        <v>1033</v>
+      </c>
       <c r="K117" s="21" t="s">
         <v>284</v>
       </c>
@@ -12276,7 +12393,9 @@
       <c r="I121" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J121" s="21"/>
+      <c r="J121" s="21" t="s">
+        <v>1028</v>
+      </c>
       <c r="K121" s="21" t="s">
         <v>284</v>
       </c>
@@ -12362,7 +12481,9 @@
       <c r="I122" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J122" s="21"/>
+      <c r="J122" s="21" t="s">
+        <v>1029</v>
+      </c>
       <c r="K122" s="21" t="s">
         <v>284</v>
       </c>
@@ -12448,7 +12569,9 @@
       <c r="I123" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J123" s="21"/>
+      <c r="J123" s="21" t="s">
+        <v>1030</v>
+      </c>
       <c r="K123" s="21" t="s">
         <v>284</v>
       </c>
@@ -12534,7 +12657,9 @@
       <c r="I124" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J124" s="21"/>
+      <c r="J124" s="21" t="s">
+        <v>1034</v>
+      </c>
       <c r="K124" s="21" t="s">
         <v>284</v>
       </c>
@@ -12620,7 +12745,9 @@
       <c r="I125" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J125" s="21"/>
+      <c r="J125" s="21" t="s">
+        <v>1035</v>
+      </c>
       <c r="K125" s="21" t="s">
         <v>284</v>
       </c>
@@ -12706,7 +12833,9 @@
       <c r="I126" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J126" s="21"/>
+      <c r="J126" s="21" t="s">
+        <v>1036</v>
+      </c>
       <c r="K126" s="21" t="s">
         <v>284</v>
       </c>
@@ -12792,7 +12921,9 @@
       <c r="I127" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J127" s="21"/>
+      <c r="J127" s="21" t="s">
+        <v>1037</v>
+      </c>
       <c r="K127" s="21" t="s">
         <v>284</v>
       </c>
@@ -12878,7 +13009,9 @@
       <c r="I128" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J128" s="21"/>
+      <c r="J128" s="21" t="s">
+        <v>1038</v>
+      </c>
       <c r="K128" s="21" t="s">
         <v>284</v>
       </c>
@@ -12966,7 +13099,9 @@
       <c r="I129" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J129" s="21"/>
+      <c r="J129" s="21" t="s">
+        <v>1039</v>
+      </c>
       <c r="K129" s="21" t="s">
         <v>284</v>
       </c>
@@ -13035,11 +13170,9 @@
       <c r="B130" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="C130" s="21" t="s">
-        <v>952</v>
-      </c>
+      <c r="C130" s="21"/>
       <c r="D130" s="21">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E130" s="21"/>
       <c r="F130" s="21">
@@ -13054,7 +13187,9 @@
       <c r="I130" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J130" s="21"/>
+      <c r="J130" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="K130" s="21" t="s">
         <v>284</v>
       </c>
@@ -13199,11 +13334,9 @@
       <c r="B133" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C133" s="21" t="s">
-        <v>952</v>
-      </c>
+      <c r="C133" s="21"/>
       <c r="D133" s="21">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E133" s="21">
         <f>COUNT(F121:F172)</f>
@@ -13221,7 +13354,9 @@
       <c r="I133" s="21" t="s">
         <v>707</v>
       </c>
-      <c r="J133" s="21"/>
+      <c r="J133" s="21" t="s">
+        <v>16</v>
+      </c>
       <c r="K133" s="21" t="s">
         <v>284</v>
       </c>
@@ -13290,11 +13425,9 @@
       <c r="B134" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C134" s="21" t="s">
-        <v>952</v>
-      </c>
+      <c r="C134" s="21"/>
       <c r="D134" s="21">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E134" s="21"/>
       <c r="F134" s="21">
@@ -13378,11 +13511,9 @@
       <c r="B135" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C135" s="21" t="s">
-        <v>952</v>
-      </c>
+      <c r="C135" s="21"/>
       <c r="D135" s="21">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E135" s="21"/>
       <c r="F135" s="21">
@@ -13466,11 +13597,9 @@
       <c r="B136" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C136" s="21" t="s">
-        <v>952</v>
-      </c>
+      <c r="C136" s="21"/>
       <c r="D136" s="21">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E136" s="21"/>
       <c r="F136" s="21">
@@ -13554,11 +13683,9 @@
       <c r="B137" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="C137" s="21" t="s">
-        <v>952</v>
-      </c>
+      <c r="C137" s="21"/>
       <c r="D137" s="21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E137" s="21"/>
       <c r="F137" s="21">
@@ -13642,9 +13769,7 @@
       <c r="B138" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C138" s="21" t="s">
-        <v>952</v>
-      </c>
+      <c r="C138" s="21"/>
       <c r="D138" s="21">
         <v>7</v>
       </c>
@@ -13730,11 +13855,9 @@
       <c r="B139" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="C139" s="21" t="s">
-        <v>952</v>
-      </c>
+      <c r="C139" s="21"/>
       <c r="D139" s="21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E139" s="21"/>
       <c r="F139" s="21">
@@ -13749,7 +13872,9 @@
       <c r="I139" s="21" t="s">
         <v>752</v>
       </c>
-      <c r="J139" s="21"/>
+      <c r="J139" s="21" t="s">
+        <v>951</v>
+      </c>
       <c r="K139" s="21" t="s">
         <v>284</v>
       </c>
@@ -13818,11 +13943,9 @@
       <c r="B140" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="C140" s="21" t="s">
-        <v>952</v>
-      </c>
+      <c r="C140" s="21"/>
       <c r="D140" s="21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E140" s="21"/>
       <c r="F140" s="21">
@@ -13837,7 +13960,9 @@
       <c r="I140" s="21" t="s">
         <v>762</v>
       </c>
-      <c r="J140" s="21"/>
+      <c r="J140" s="21" t="s">
+        <v>950</v>
+      </c>
       <c r="K140" s="21" t="s">
         <v>284</v>
       </c>
@@ -13906,11 +14031,9 @@
       <c r="B141" s="21" t="s">
         <v>772</v>
       </c>
-      <c r="C141" s="21" t="s">
-        <v>952</v>
-      </c>
+      <c r="C141" s="21"/>
       <c r="D141" s="21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E141" s="21"/>
       <c r="F141" s="21">
@@ -13994,9 +14117,7 @@
       <c r="B142" s="21" t="s">
         <v>775</v>
       </c>
-      <c r="C142" s="21" t="s">
-        <v>952</v>
-      </c>
+      <c r="C142" s="21"/>
       <c r="D142" s="21">
         <v>3</v>
       </c>
@@ -14082,9 +14203,7 @@
       <c r="B143" s="21" t="s">
         <v>779</v>
       </c>
-      <c r="C143" s="21" t="s">
-        <v>952</v>
-      </c>
+      <c r="C143" s="21"/>
       <c r="D143" s="21">
         <v>2</v>
       </c>
@@ -17321,11 +17440,11 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="50" t="s">
         <v>248</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
       <c r="E3" t="s">
         <v>250</v>
       </c>
@@ -17335,28 +17454,28 @@
       <c r="G3" t="s">
         <v>252</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="H3" s="50" t="s">
         <v>253</v>
       </c>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48" t="s">
+      <c r="I3" s="50"/>
+      <c r="J3" s="50" t="s">
         <v>254</v>
       </c>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="48" t="s">
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="O3" s="48"/>
-      <c r="P3" s="48"/>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="S3" s="48"/>
-      <c r="T3" s="48"/>
-      <c r="U3" s="48"/>
-      <c r="V3" s="48"/>
-      <c r="W3" s="48"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
       <c r="X3" t="s">
         <v>256</v>
       </c>
@@ -17445,7 +17564,7 @@
       <c r="C5" s="20">
         <v>1</v>
       </c>
-      <c r="D5" s="48" t="s">
+      <c r="D5" s="50" t="s">
         <v>204</v>
       </c>
     </row>
@@ -17453,13 +17572,13 @@
       <c r="C6" s="20">
         <v>2</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="50"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C7" s="20">
         <v>3</v>
       </c>
-      <c r="D7" s="48" t="s">
+      <c r="D7" s="50" t="s">
         <v>930</v>
       </c>
     </row>
@@ -17467,13 +17586,13 @@
       <c r="C8" s="20">
         <v>4</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="50"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C9" s="20">
         <v>5</v>
       </c>
-      <c r="D9" s="48" t="s">
+      <c r="D9" s="50" t="s">
         <v>931</v>
       </c>
     </row>
@@ -17481,13 +17600,13 @@
       <c r="C10" s="20">
         <v>6</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C11" s="20">
         <v>7</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="50" t="s">
         <v>932</v>
       </c>
     </row>
@@ -17495,13 +17614,13 @@
       <c r="C12" s="20">
         <v>8</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="50"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="C13" s="20">
         <v>9</v>
       </c>
-      <c r="D13" s="49" t="s">
+      <c r="D13" s="51" t="s">
         <v>933</v>
       </c>
     </row>
@@ -17509,7 +17628,7 @@
       <c r="C14" s="20">
         <v>10</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="50"/>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="N15" t="s">
@@ -17775,7 +17894,7 @@
       <c r="A19" s="20">
         <v>4</v>
       </c>
-      <c r="D19" s="47" t="s">
+      <c r="D19" s="49" t="s">
         <v>903</v>
       </c>
       <c r="E19" t="s">
@@ -17852,7 +17971,7 @@
       <c r="A20" s="20">
         <v>5</v>
       </c>
-      <c r="D20" s="47"/>
+      <c r="D20" s="49"/>
       <c r="E20" t="s">
         <v>284</v>
       </c>
@@ -17927,7 +18046,7 @@
       <c r="A21" s="20">
         <v>6</v>
       </c>
-      <c r="D21" s="47"/>
+      <c r="D21" s="49"/>
       <c r="E21" t="s">
         <v>284</v>
       </c>
@@ -18002,7 +18121,7 @@
       <c r="A22" s="20">
         <v>7</v>
       </c>
-      <c r="D22" s="47"/>
+      <c r="D22" s="49"/>
       <c r="E22" t="s">
         <v>284</v>
       </c>
@@ -18077,7 +18196,7 @@
       <c r="A23" s="20">
         <v>8</v>
       </c>
-      <c r="D23" s="47"/>
+      <c r="D23" s="49"/>
       <c r="E23" t="s">
         <v>284</v>
       </c>
@@ -18152,7 +18271,7 @@
       <c r="A24" s="20">
         <v>9</v>
       </c>
-      <c r="D24" s="47"/>
+      <c r="D24" s="49"/>
       <c r="E24" t="s">
         <v>284</v>
       </c>
@@ -18227,7 +18346,7 @@
       <c r="A25" s="20">
         <v>10</v>
       </c>
-      <c r="D25" s="47"/>
+      <c r="D25" s="49"/>
       <c r="E25" t="s">
         <v>284</v>
       </c>
@@ -18302,7 +18421,7 @@
       <c r="A26" s="20">
         <v>11</v>
       </c>
-      <c r="D26" s="47"/>
+      <c r="D26" s="49"/>
       <c r="E26" t="s">
         <v>284</v>
       </c>
@@ -18377,7 +18496,7 @@
       <c r="A27" s="20">
         <v>12</v>
       </c>
-      <c r="D27" s="47"/>
+      <c r="D27" s="49"/>
       <c r="E27" t="s">
         <v>284</v>
       </c>
@@ -18452,7 +18571,7 @@
       <c r="A28" s="20">
         <v>13</v>
       </c>
-      <c r="D28" s="47"/>
+      <c r="D28" s="49"/>
       <c r="E28" t="s">
         <v>284</v>
       </c>
@@ -18909,7 +19028,7 @@
       <c r="A34" s="20">
         <v>19</v>
       </c>
-      <c r="D34" s="47" t="s">
+      <c r="D34" s="49" t="s">
         <v>905</v>
       </c>
       <c r="E34" t="s">
@@ -18986,7 +19105,7 @@
       <c r="A35" s="20">
         <v>20</v>
       </c>
-      <c r="D35" s="47"/>
+      <c r="D35" s="49"/>
       <c r="E35" t="s">
         <v>365</v>
       </c>
@@ -19061,7 +19180,7 @@
       <c r="A36" s="20">
         <v>21</v>
       </c>
-      <c r="D36" s="47"/>
+      <c r="D36" s="49"/>
       <c r="E36" t="s">
         <v>366</v>
       </c>
@@ -19136,7 +19255,7 @@
       <c r="A37" s="20">
         <v>22</v>
       </c>
-      <c r="D37" s="47"/>
+      <c r="D37" s="49"/>
       <c r="E37" t="s">
         <v>367</v>
       </c>
@@ -19211,7 +19330,7 @@
       <c r="A38" s="20">
         <v>23</v>
       </c>
-      <c r="D38" s="47"/>
+      <c r="D38" s="49"/>
       <c r="E38" t="s">
         <v>368</v>
       </c>
@@ -19286,7 +19405,7 @@
       <c r="A39" s="20">
         <v>24</v>
       </c>
-      <c r="D39" s="47"/>
+      <c r="D39" s="49"/>
       <c r="E39" t="s">
         <v>373</v>
       </c>
@@ -19361,7 +19480,7 @@
       <c r="A40" s="20">
         <v>25</v>
       </c>
-      <c r="D40" s="47"/>
+      <c r="D40" s="49"/>
       <c r="E40" t="s">
         <v>379</v>
       </c>
@@ -19436,7 +19555,7 @@
       <c r="A41" s="20">
         <v>26</v>
       </c>
-      <c r="D41" s="47"/>
+      <c r="D41" s="49"/>
       <c r="E41" t="s">
         <v>380</v>
       </c>
@@ -19511,7 +19630,7 @@
       <c r="A42" s="20">
         <v>27</v>
       </c>
-      <c r="D42" s="47"/>
+      <c r="D42" s="49"/>
       <c r="E42" t="s">
         <v>381</v>
       </c>
@@ -19586,7 +19705,7 @@
       <c r="A43" s="20">
         <v>28</v>
       </c>
-      <c r="D43" s="47"/>
+      <c r="D43" s="49"/>
       <c r="E43" t="s">
         <v>382</v>
       </c>
@@ -19661,7 +19780,7 @@
       <c r="A44" s="20">
         <v>29</v>
       </c>
-      <c r="D44" s="47"/>
+      <c r="D44" s="49"/>
       <c r="E44" t="s">
         <v>383</v>
       </c>
@@ -19736,7 +19855,7 @@
       <c r="A45" s="20">
         <v>30</v>
       </c>
-      <c r="D45" s="47"/>
+      <c r="D45" s="49"/>
       <c r="E45" t="s">
         <v>384</v>
       </c>
@@ -19811,7 +19930,7 @@
       <c r="A46" s="20">
         <v>31</v>
       </c>
-      <c r="D46" s="47" t="s">
+      <c r="D46" s="49" t="s">
         <v>906</v>
       </c>
       <c r="E46" t="s">
@@ -19888,7 +20007,7 @@
       <c r="A47" s="20">
         <v>32</v>
       </c>
-      <c r="D47" s="47"/>
+      <c r="D47" s="49"/>
       <c r="E47" t="s">
         <v>284</v>
       </c>
@@ -19963,7 +20082,7 @@
       <c r="A48" s="20">
         <v>33</v>
       </c>
-      <c r="D48" s="47" t="s">
+      <c r="D48" s="49" t="s">
         <v>909</v>
       </c>
       <c r="E48" t="s">
@@ -20040,7 +20159,7 @@
       <c r="A49" s="20">
         <v>34</v>
       </c>
-      <c r="D49" s="47"/>
+      <c r="D49" s="49"/>
       <c r="E49" t="s">
         <v>386</v>
       </c>
@@ -20115,7 +20234,7 @@
       <c r="A50" s="20">
         <v>35</v>
       </c>
-      <c r="D50" s="47"/>
+      <c r="D50" s="49"/>
       <c r="E50" t="s">
         <v>367</v>
       </c>
@@ -20987,7 +21106,7 @@
       <c r="C61" s="20">
         <v>2</v>
       </c>
-      <c r="D61" s="47" t="s">
+      <c r="D61" s="49" t="s">
         <v>918</v>
       </c>
       <c r="F61" t="s">
@@ -21064,7 +21183,7 @@
       <c r="C62" s="20">
         <v>3</v>
       </c>
-      <c r="D62" s="47"/>
+      <c r="D62" s="49"/>
       <c r="F62" t="s">
         <v>284</v>
       </c>
@@ -22087,7 +22206,7 @@
       <c r="A75" s="20">
         <v>60</v>
       </c>
-      <c r="D75" s="47" t="s">
+      <c r="D75" s="49" t="s">
         <v>909</v>
       </c>
       <c r="E75" t="s">
@@ -22164,7 +22283,7 @@
       <c r="A76" s="20">
         <v>61</v>
       </c>
-      <c r="D76" s="47"/>
+      <c r="D76" s="49"/>
       <c r="E76" t="s">
         <v>544</v>
       </c>
@@ -22239,7 +22358,7 @@
       <c r="A77" s="20">
         <v>62</v>
       </c>
-      <c r="D77" s="47"/>
+      <c r="D77" s="49"/>
       <c r="E77" t="s">
         <v>545</v>
       </c>
@@ -22314,7 +22433,7 @@
       <c r="A78" s="20">
         <v>63</v>
       </c>
-      <c r="D78" s="47"/>
+      <c r="D78" s="49"/>
       <c r="E78" t="s">
         <v>367</v>
       </c>
@@ -22389,7 +22508,7 @@
       <c r="A79" s="20">
         <v>64</v>
       </c>
-      <c r="D79" s="47"/>
+      <c r="D79" s="49"/>
       <c r="E79" t="s">
         <v>546</v>
       </c>
@@ -22464,7 +22583,7 @@
       <c r="A80" s="20">
         <v>65</v>
       </c>
-      <c r="D80" s="47"/>
+      <c r="D80" s="49"/>
       <c r="E80" t="s">
         <v>546</v>
       </c>
@@ -22539,7 +22658,7 @@
       <c r="A81" s="20">
         <v>66</v>
       </c>
-      <c r="D81" s="47"/>
+      <c r="D81" s="49"/>
       <c r="E81" t="s">
         <v>547</v>
       </c>
@@ -22617,7 +22736,7 @@
       <c r="C82" s="20">
         <v>9</v>
       </c>
-      <c r="D82" s="47"/>
+      <c r="D82" s="49"/>
       <c r="E82" t="s">
         <v>548</v>
       </c>
@@ -22692,7 +22811,7 @@
       <c r="C83" s="20">
         <v>1</v>
       </c>
-      <c r="D83" s="47" t="s">
+      <c r="D83" s="49" t="s">
         <v>927</v>
       </c>
       <c r="E83" t="s">
@@ -22772,7 +22891,7 @@
       <c r="C84" s="20">
         <v>3</v>
       </c>
-      <c r="D84" s="47"/>
+      <c r="D84" s="49"/>
       <c r="E84" t="s">
         <v>284</v>
       </c>
@@ -22850,7 +22969,7 @@
       <c r="C85" s="20">
         <v>5</v>
       </c>
-      <c r="D85" s="47"/>
+      <c r="D85" s="49"/>
       <c r="E85" t="s">
         <v>284</v>
       </c>
@@ -22928,7 +23047,7 @@
       <c r="C86" s="20">
         <v>7</v>
       </c>
-      <c r="D86" s="47"/>
+      <c r="D86" s="49"/>
       <c r="E86" t="s">
         <v>284</v>
       </c>
@@ -23006,7 +23125,7 @@
       <c r="C87" s="20">
         <v>9</v>
       </c>
-      <c r="D87" s="47"/>
+      <c r="D87" s="49"/>
       <c r="E87" t="s">
         <v>284</v>
       </c>
@@ -23854,7 +23973,7 @@
       <c r="A98" s="20">
         <v>83</v>
       </c>
-      <c r="D98" s="47" t="s">
+      <c r="D98" s="49" t="s">
         <v>948</v>
       </c>
       <c r="E98" t="s">
@@ -23931,7 +24050,7 @@
       <c r="A99" s="20">
         <v>84</v>
       </c>
-      <c r="D99" s="47"/>
+      <c r="D99" s="49"/>
       <c r="E99" t="s">
         <v>544</v>
       </c>
@@ -24246,7 +24365,7 @@
       <c r="C103" s="20">
         <v>7</v>
       </c>
-      <c r="D103" s="47" t="s">
+      <c r="D103" s="49" t="s">
         <v>947</v>
       </c>
       <c r="E103" t="s">
@@ -24326,7 +24445,7 @@
       <c r="C104" s="20">
         <v>5</v>
       </c>
-      <c r="D104" s="47"/>
+      <c r="D104" s="49"/>
       <c r="E104" t="s">
         <v>614</v>
       </c>
@@ -24404,7 +24523,7 @@
       <c r="C105" s="20">
         <v>3</v>
       </c>
-      <c r="D105" s="47"/>
+      <c r="D105" s="49"/>
       <c r="E105" t="s">
         <v>618</v>
       </c>
@@ -24482,7 +24601,7 @@
       <c r="C106" s="20">
         <v>1</v>
       </c>
-      <c r="D106" s="47"/>
+      <c r="D106" s="49"/>
       <c r="E106" t="s">
         <v>155</v>
       </c>
@@ -24930,7 +25049,7 @@
       <c r="A112" s="20">
         <v>97</v>
       </c>
-      <c r="D112" s="47" t="s">
+      <c r="D112" s="49" t="s">
         <v>949</v>
       </c>
       <c r="E112" t="s">
@@ -25004,7 +25123,7 @@
       <c r="A113" s="20">
         <v>98</v>
       </c>
-      <c r="D113" s="47"/>
+      <c r="D113" s="49"/>
       <c r="E113" t="s">
         <v>367</v>
       </c>
@@ -25920,7 +26039,7 @@
       <c r="A125" s="20">
         <v>110</v>
       </c>
-      <c r="D125" s="47" t="s">
+      <c r="D125" s="49" t="s">
         <v>949</v>
       </c>
       <c r="E125" t="s">
@@ -25997,7 +26116,7 @@
       <c r="A126" s="20">
         <v>111</v>
       </c>
-      <c r="D126" s="47"/>
+      <c r="D126" s="49"/>
       <c r="E126" t="s">
         <v>367</v>
       </c>
@@ -26072,7 +26191,7 @@
       <c r="A127" s="20">
         <v>112</v>
       </c>
-      <c r="D127" s="47"/>
+      <c r="D127" s="49"/>
       <c r="E127" t="s">
         <v>684</v>
       </c>
@@ -26893,7 +27012,7 @@
       <c r="A138" s="20">
         <v>123</v>
       </c>
-      <c r="D138" s="47" t="s">
+      <c r="D138" s="49" t="s">
         <v>949</v>
       </c>
       <c r="E138" t="s">
@@ -26970,7 +27089,7 @@
       <c r="A139" s="20">
         <v>124</v>
       </c>
-      <c r="D139" s="47"/>
+      <c r="D139" s="49"/>
       <c r="E139" t="s">
         <v>367</v>
       </c>
@@ -28819,7 +28938,7 @@
       <c r="A163" s="20">
         <v>148</v>
       </c>
-      <c r="D163" s="47" t="s">
+      <c r="D163" s="49" t="s">
         <v>949</v>
       </c>
       <c r="E163" t="s">
@@ -28896,7 +29015,7 @@
       <c r="A164" s="20">
         <v>149</v>
       </c>
-      <c r="D164" s="47"/>
+      <c r="D164" s="49"/>
       <c r="E164" t="s">
         <v>379</v>
       </c>
@@ -28971,7 +29090,7 @@
       <c r="A165" s="20">
         <v>150</v>
       </c>
-      <c r="D165" s="47"/>
+      <c r="D165" s="49"/>
       <c r="E165" t="s">
         <v>367</v>
       </c>
@@ -29200,7 +29319,7 @@
       <c r="A168" s="20">
         <v>153</v>
       </c>
-      <c r="D168" s="47" t="s">
+      <c r="D168" s="49" t="s">
         <v>949</v>
       </c>
       <c r="E168" t="s">
@@ -29277,7 +29396,7 @@
       <c r="A169" s="20">
         <v>154</v>
       </c>
-      <c r="D169" s="47"/>
+      <c r="D169" s="49"/>
       <c r="E169" t="s">
         <v>847</v>
       </c>
@@ -29352,7 +29471,7 @@
       <c r="A170" s="20">
         <v>155</v>
       </c>
-      <c r="D170" s="47"/>
+      <c r="D170" s="49"/>
       <c r="E170" t="s">
         <v>848</v>
       </c>
@@ -29427,7 +29546,7 @@
       <c r="A171" s="20">
         <v>156</v>
       </c>
-      <c r="D171" s="47"/>
+      <c r="D171" s="49"/>
       <c r="E171" t="s">
         <v>849</v>
       </c>
@@ -29502,7 +29621,7 @@
       <c r="A172" s="20">
         <v>157</v>
       </c>
-      <c r="D172" s="47"/>
+      <c r="D172" s="49"/>
       <c r="E172" t="s">
         <v>850</v>
       </c>
@@ -29577,7 +29696,7 @@
       <c r="A173" s="20">
         <v>158</v>
       </c>
-      <c r="D173" s="47"/>
+      <c r="D173" s="49"/>
       <c r="E173" t="s">
         <v>851</v>
       </c>
@@ -30499,7 +30618,7 @@
       <c r="A185" s="20">
         <v>170</v>
       </c>
-      <c r="D185" s="47" t="s">
+      <c r="D185" s="49" t="s">
         <v>949</v>
       </c>
       <c r="E185" t="s">
@@ -30576,7 +30695,7 @@
       <c r="A186" s="20">
         <v>171</v>
       </c>
-      <c r="D186" s="47"/>
+      <c r="D186" s="49"/>
       <c r="E186" t="s">
         <v>379</v>
       </c>
@@ -31039,6 +31158,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:I3"/>
@@ -31055,14 +31182,6 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -31324,12 +31443,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="3"/>
       <c r="F1" s="1" t="s">
         <v>12</v>
@@ -32921,14 +33040,14 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51" t="s">
+      <c r="C2" s="53"/>
+      <c r="D2" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="51"/>
+      <c r="E2" s="53"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="2" t="s">
@@ -33278,18 +33397,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:12" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="24" t="s">
@@ -33436,18 +33555,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">

--- a/S7G2_Titan/2022_Nov_03_MD_Controller_IO_Map_32_bit_S7G2_Titan_Teknic_Motors.xlsx
+++ b/S7G2_Titan/2022_Nov_03_MD_Controller_IO_Map_32_bit_S7G2_Titan_Teknic_Motors.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BB0F1D-546E-4AE4-A50A-2837380236E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD3516-C991-4315-B0F3-B699193CC705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3935,8 +3935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9ED81-804C-4EFA-84D0-1A12C997A3D1}">
   <dimension ref="A3:AD236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D139" sqref="D139"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4451,9 +4451,11 @@
         <v>302</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>206</v>
-      </c>
-      <c r="D11" s="21"/>
+        <v>937</v>
+      </c>
+      <c r="D11" s="21">
+        <v>9</v>
+      </c>
       <c r="E11" s="21"/>
       <c r="F11" s="21">
         <v>1</v>
@@ -31158,14 +31160,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:I3"/>
@@ -31182,6 +31176,14 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/S7G2_Titan/2022_Nov_03_MD_Controller_IO_Map_32_bit_S7G2_Titan_Teknic_Motors.xlsx
+++ b/S7G2_Titan/2022_Nov_03_MD_Controller_IO_Map_32_bit_S7G2_Titan_Teknic_Motors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD3516-C991-4315-B0F3-B699193CC705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C78E4D7-6EE1-429B-81F1-5BFA93A7160A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="1103" windowWidth="28995" windowHeight="15795" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller Headers" sheetId="13" r:id="rId1"/>
@@ -23,24 +23,11 @@
     <sheet name="X_Y axis speed calcs" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7771" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7793" uniqueCount="1062">
   <si>
     <t>A</t>
   </si>
@@ -2875,9 +2862,6 @@
     <t>J3</t>
   </si>
   <si>
-    <t>J5</t>
-  </si>
-  <si>
     <t>J2</t>
   </si>
   <si>
@@ -3173,6 +3157,75 @@
   </si>
   <si>
     <t>X_B_STEP</t>
+  </si>
+  <si>
+    <t>Thermistor 1</t>
+  </si>
+  <si>
+    <t>Thermistor 2</t>
+  </si>
+  <si>
+    <t>Thermistor 3</t>
+  </si>
+  <si>
+    <t>Thermistor 4</t>
+  </si>
+  <si>
+    <t>AN00</t>
+  </si>
+  <si>
+    <t>AN01</t>
+  </si>
+  <si>
+    <t>AN0_00</t>
+  </si>
+  <si>
+    <t>AN0_01</t>
+  </si>
+  <si>
+    <t>AN0_02</t>
+  </si>
+  <si>
+    <t>PGAVSS</t>
+  </si>
+  <si>
+    <t>AN1_00</t>
+  </si>
+  <si>
+    <t>AN1_01</t>
+  </si>
+  <si>
+    <t>AN1_02</t>
+  </si>
+  <si>
+    <t>PGVSS</t>
+  </si>
+  <si>
+    <t>AN0_03</t>
+  </si>
+  <si>
+    <t>AN0_04</t>
+  </si>
+  <si>
+    <t>J39</t>
+  </si>
+  <si>
+    <t>AN0_06</t>
+  </si>
+  <si>
+    <t>AN0_05</t>
+  </si>
+  <si>
+    <t>Thermistor 5</t>
+  </si>
+  <si>
+    <t>Thermistor 6</t>
+  </si>
+  <si>
+    <t>Thermistor 7</t>
+  </si>
+  <si>
+    <t>Thermistor 8</t>
   </si>
 </sst>
 </file>
@@ -3935,8 +3988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9ED81-804C-4EFA-84D0-1A12C997A3D1}">
   <dimension ref="A3:AD236"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3973,19 +4026,19 @@
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21" t="s">
+        <v>967</v>
+      </c>
+      <c r="F3" s="21" t="s">
         <v>968</v>
       </c>
-      <c r="F3" s="21" t="s">
-        <v>969</v>
-      </c>
       <c r="G3" s="21" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="H3" s="21" t="s">
         <v>250</v>
       </c>
       <c r="I3" s="21" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J3" s="21"/>
       <c r="K3" s="21" t="s">
@@ -4034,10 +4087,10 @@
         <v>249</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="H4" s="21" t="s">
         <v>259</v>
@@ -4113,7 +4166,7 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D5" s="21">
         <v>1</v>
@@ -4153,7 +4206,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D6" s="21">
         <v>2</v>
@@ -4193,7 +4246,7 @@
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="21" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D7" s="21">
         <v>3</v>
@@ -4233,7 +4286,7 @@
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="21" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="D8" s="21">
         <v>4</v>
@@ -4539,7 +4592,7 @@
         <v>87</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="44" t="s">
@@ -4623,7 +4676,7 @@
         <v>89</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="44" t="s">
@@ -4707,7 +4760,7 @@
         <v>77</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="44" t="s">
@@ -4791,7 +4844,7 @@
         <v>75</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="44" t="s">
@@ -4875,7 +4928,7 @@
         <v>73</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="44" t="s">
@@ -4959,7 +5012,7 @@
         <v>70</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="44" t="s">
@@ -5043,7 +5096,7 @@
         <v>79</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="44" t="s">
@@ -5127,7 +5180,7 @@
         <v>81</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="44" t="s">
@@ -5211,7 +5264,7 @@
         <v>83</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="44" t="s">
@@ -5295,7 +5348,7 @@
         <v>85</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="44" t="s">
@@ -5730,7 +5783,7 @@
         <v>18</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="21"/>
@@ -5766,7 +5819,7 @@
         <v>19</v>
       </c>
       <c r="B27" s="21" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C27" s="21"/>
       <c r="D27" s="21"/>
@@ -5807,7 +5860,7 @@
       <c r="C28" s="21"/>
       <c r="D28" s="21"/>
       <c r="E28" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -5845,7 +5898,7 @@
       <c r="C29" s="21"/>
       <c r="D29" s="21"/>
       <c r="E29" s="21" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -5878,7 +5931,7 @@
         <v>22</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C30" s="21"/>
       <c r="D30" s="21"/>
@@ -5921,7 +5974,7 @@
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
       <c r="E31" s="21" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="F31" s="21"/>
       <c r="G31" s="21"/>
@@ -5959,7 +6012,7 @@
       <c r="C32" s="21"/>
       <c r="D32" s="21"/>
       <c r="E32" s="21" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="21"/>
@@ -5992,7 +6045,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="21" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
@@ -6030,7 +6083,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="21" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="C34" s="21"/>
       <c r="D34" s="21"/>
@@ -6073,7 +6126,7 @@
       <c r="C35" s="21"/>
       <c r="D35" s="21"/>
       <c r="E35" s="21" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="F35" s="21"/>
       <c r="G35" s="21"/>
@@ -6220,7 +6273,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="21" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C39" s="21" t="s">
         <v>938</v>
@@ -6229,7 +6282,7 @@
         <v>2</v>
       </c>
       <c r="E39" s="44" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="F39" s="21" t="s">
         <v>284</v>
@@ -6319,7 +6372,7 @@
         <v>3</v>
       </c>
       <c r="E40" s="44" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>284</v>
@@ -6476,7 +6529,7 @@
         <v>35</v>
       </c>
       <c r="B43" s="21" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C43" s="21"/>
       <c r="D43" s="21"/>
@@ -7355,7 +7408,7 @@
         <v>2</v>
       </c>
       <c r="E54" s="44" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="F54" s="21" t="s">
         <v>284</v>
@@ -7434,7 +7487,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="21" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C55" s="21" t="s">
         <v>936</v>
@@ -7443,7 +7496,7 @@
         <v>3</v>
       </c>
       <c r="E55" s="44" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="F55" s="21" t="s">
         <v>284</v>
@@ -7574,7 +7627,7 @@
         <v>284</v>
       </c>
       <c r="J57" s="21" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="K57" s="21"/>
       <c r="L57" s="21"/>
@@ -7624,7 +7677,7 @@
         <v>467</v>
       </c>
       <c r="J58" s="21" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K58" s="21" t="s">
         <v>284</v>
@@ -7710,7 +7763,7 @@
         <v>479</v>
       </c>
       <c r="J59" s="21" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="K59" s="21" t="s">
         <v>284</v>
@@ -7796,7 +7849,7 @@
         <v>284</v>
       </c>
       <c r="J60" s="21" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="K60" s="21" t="s">
         <v>284</v>
@@ -7882,7 +7935,7 @@
         <v>507</v>
       </c>
       <c r="J61" s="21" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="K61" s="21" t="s">
         <v>284</v>
@@ -8052,7 +8105,7 @@
         <v>284</v>
       </c>
       <c r="J63" s="20" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="K63" s="21" t="s">
         <v>284</v>
@@ -8138,7 +8191,7 @@
         <v>284</v>
       </c>
       <c r="J64" s="20" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K64" s="21" t="s">
         <v>284</v>
@@ -8224,7 +8277,7 @@
         <v>284</v>
       </c>
       <c r="J65" s="21" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K65" s="21" t="s">
         <v>284</v>
@@ -8310,7 +8363,7 @@
         <v>284</v>
       </c>
       <c r="J66" s="21" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="K66" s="21" t="s">
         <v>284</v>
@@ -8396,7 +8449,7 @@
         <v>284</v>
       </c>
       <c r="J67" s="21" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="K67" s="21" t="s">
         <v>284</v>
@@ -8616,7 +8669,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="21" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C72" s="21"/>
       <c r="D72" s="21"/>
@@ -8654,7 +8707,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="21" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C73" s="21"/>
       <c r="D73" s="21"/>
@@ -8730,7 +8783,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="21" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="C75" s="21" t="s">
         <v>939</v>
@@ -8739,18 +8792,18 @@
         <v>9</v>
       </c>
       <c r="E75" s="45" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F75" s="45"/>
       <c r="G75" s="45"/>
       <c r="H75" s="21" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="I75" s="21" t="s">
         <v>284</v>
       </c>
       <c r="J75" s="21" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="K75" s="21" t="s">
         <v>284</v>
@@ -8836,7 +8889,7 @@
         <v>284</v>
       </c>
       <c r="J76" s="21" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="K76" s="21" t="s">
         <v>284</v>
@@ -8909,7 +8962,7 @@
       <c r="C77" s="21"/>
       <c r="D77" s="21"/>
       <c r="E77" s="44" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="F77" s="21" t="s">
         <v>284</v>
@@ -8924,7 +8977,7 @@
         <v>550</v>
       </c>
       <c r="J77" s="21" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="K77" s="21" t="s">
         <v>284</v>
@@ -9010,7 +9063,7 @@
         <v>284</v>
       </c>
       <c r="J78" s="21" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="K78" s="21" t="s">
         <v>284</v>
@@ -9096,7 +9149,7 @@
         <v>284</v>
       </c>
       <c r="J79" s="21" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="K79" s="21" t="s">
         <v>284</v>
@@ -9182,7 +9235,7 @@
         <v>284</v>
       </c>
       <c r="J80" s="21" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="K80" s="21" t="s">
         <v>284</v>
@@ -9268,7 +9321,7 @@
         <v>284</v>
       </c>
       <c r="J81" s="21" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="K81" s="21" t="s">
         <v>284</v>
@@ -9354,7 +9407,7 @@
         <v>284</v>
       </c>
       <c r="J82" s="20" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="K82" s="21" t="s">
         <v>284</v>
@@ -9440,7 +9493,7 @@
         <v>284</v>
       </c>
       <c r="J83" s="21" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="K83" s="21" t="s">
         <v>284</v>
@@ -9526,7 +9579,7 @@
         <v>284</v>
       </c>
       <c r="J84" s="21" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="K84" s="21" t="s">
         <v>284</v>
@@ -9612,7 +9665,7 @@
         <v>284</v>
       </c>
       <c r="J85" s="21" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="K85" s="21" t="s">
         <v>284</v>
@@ -9685,7 +9738,7 @@
       <c r="C86" s="21"/>
       <c r="D86" s="21"/>
       <c r="E86" s="21" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="F86" s="21"/>
       <c r="G86" s="21"/>
@@ -9910,7 +9963,7 @@
         <v>244</v>
       </c>
       <c r="J89" s="21" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="K89" s="21" t="s">
         <v>284</v>
@@ -9998,7 +10051,7 @@
         <v>591</v>
       </c>
       <c r="J90" s="21" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="K90" s="21" t="s">
         <v>284</v>
@@ -10231,13 +10284,13 @@
         <v>47</v>
       </c>
       <c r="C94" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D94" s="21">
         <v>40</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="F94" s="21">
         <v>1</v>
@@ -10252,7 +10305,7 @@
         <v>423</v>
       </c>
       <c r="J94" s="21" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="K94" s="21" t="s">
         <v>284</v>
@@ -10323,13 +10376,13 @@
         <v>166</v>
       </c>
       <c r="C95" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D95" s="21">
         <v>39</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="F95" s="21">
         <v>1</v>
@@ -10344,7 +10397,7 @@
         <v>434</v>
       </c>
       <c r="J95" s="21" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="K95" s="21" t="s">
         <v>284</v>
@@ -10421,7 +10474,7 @@
         <v>7</v>
       </c>
       <c r="E96" s="48" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F96" s="48"/>
       <c r="G96" s="48"/>
@@ -10507,7 +10560,7 @@
         <v>5</v>
       </c>
       <c r="E97" s="48" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F97" s="48"/>
       <c r="G97" s="48"/>
@@ -10593,7 +10646,7 @@
         <v>3</v>
       </c>
       <c r="E98" s="48" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F98" s="48"/>
       <c r="G98" s="48"/>
@@ -10679,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="E99" s="48" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="F99" s="48"/>
       <c r="G99" s="48"/>
@@ -10759,7 +10812,7 @@
         <v>43</v>
       </c>
       <c r="C100" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D100" s="21">
         <v>38</v>
@@ -10778,7 +10831,7 @@
         <v>412</v>
       </c>
       <c r="J100" s="21" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="K100" s="21" t="s">
         <v>284</v>
@@ -10849,7 +10902,7 @@
         <v>165</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D101" s="21">
         <v>37</v>
@@ -10868,7 +10921,7 @@
         <v>284</v>
       </c>
       <c r="J101" s="21" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="K101" s="21" t="s">
         <v>284</v>
@@ -10937,7 +10990,7 @@
         <v>642</v>
       </c>
       <c r="C102" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D102" s="21">
         <v>36</v>
@@ -10956,7 +11009,7 @@
         <v>284</v>
       </c>
       <c r="J102" s="21" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="K102" s="21" t="s">
         <v>284</v>
@@ -11025,7 +11078,7 @@
         <v>647</v>
       </c>
       <c r="C103" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D103" s="21">
         <v>35</v>
@@ -11044,7 +11097,7 @@
         <v>284</v>
       </c>
       <c r="J103" s="21" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="K103" s="21" t="s">
         <v>284</v>
@@ -11113,7 +11166,7 @@
         <v>651</v>
       </c>
       <c r="C104" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D104" s="21">
         <v>34</v>
@@ -11132,7 +11185,7 @@
         <v>284</v>
       </c>
       <c r="J104" s="21" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="K104" s="21" t="s">
         <v>284</v>
@@ -11277,7 +11330,7 @@
         <v>655</v>
       </c>
       <c r="C107" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D107" s="21">
         <v>33</v>
@@ -11296,7 +11349,7 @@
         <v>284</v>
       </c>
       <c r="J107" s="21" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="K107" s="21" t="s">
         <v>284</v>
@@ -11367,7 +11420,7 @@
         <v>53</v>
       </c>
       <c r="C108" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D108" s="21">
         <v>32</v>
@@ -11386,7 +11439,7 @@
         <v>284</v>
       </c>
       <c r="J108" s="21" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="K108" s="21" t="s">
         <v>284</v>
@@ -11457,7 +11510,7 @@
         <v>55</v>
       </c>
       <c r="C109" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D109" s="21">
         <v>31</v>
@@ -11476,7 +11529,7 @@
         <v>284</v>
       </c>
       <c r="J109" s="21" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="K109" s="21" t="s">
         <v>284</v>
@@ -11547,7 +11600,7 @@
         <v>665</v>
       </c>
       <c r="C110" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D110" s="21">
         <v>30</v>
@@ -11566,7 +11619,7 @@
         <v>284</v>
       </c>
       <c r="J110" s="21" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="K110" s="21" t="s">
         <v>284</v>
@@ -11635,7 +11688,7 @@
         <v>667</v>
       </c>
       <c r="C111" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D111" s="21">
         <v>29</v>
@@ -11654,7 +11707,7 @@
         <v>284</v>
       </c>
       <c r="J111" s="21" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="K111" s="21" t="s">
         <v>284</v>
@@ -11725,7 +11778,7 @@
         <v>670</v>
       </c>
       <c r="C112" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D112" s="21">
         <v>28</v>
@@ -11744,7 +11797,7 @@
         <v>284</v>
       </c>
       <c r="J112" s="21" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="K112" s="21" t="s">
         <v>284</v>
@@ -11815,7 +11868,7 @@
         <v>673</v>
       </c>
       <c r="C113" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D113" s="21">
         <v>27</v>
@@ -11834,7 +11887,7 @@
         <v>284</v>
       </c>
       <c r="J113" s="21" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="K113" s="21" t="s">
         <v>284</v>
@@ -11905,7 +11958,7 @@
         <v>676</v>
       </c>
       <c r="C114" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D114" s="21">
         <v>26</v>
@@ -11924,7 +11977,7 @@
         <v>284</v>
       </c>
       <c r="J114" s="21" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="K114" s="21" t="s">
         <v>284</v>
@@ -11995,7 +12048,7 @@
         <v>678</v>
       </c>
       <c r="C115" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D115" s="21">
         <v>25</v>
@@ -12014,7 +12067,7 @@
         <v>284</v>
       </c>
       <c r="J115" s="21" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="K115" s="21" t="s">
         <v>284</v>
@@ -12085,7 +12138,7 @@
         <v>680</v>
       </c>
       <c r="C116" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D116" s="21">
         <v>24</v>
@@ -12104,7 +12157,7 @@
         <v>284</v>
       </c>
       <c r="J116" s="21" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="K116" s="21" t="s">
         <v>284</v>
@@ -12175,7 +12228,7 @@
         <v>682</v>
       </c>
       <c r="C117" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D117" s="21">
         <v>23</v>
@@ -12194,7 +12247,7 @@
         <v>284</v>
       </c>
       <c r="J117" s="21" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="K117" s="21" t="s">
         <v>284</v>
@@ -12379,7 +12432,7 @@
         <v>685</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D121" s="21">
         <v>22</v>
@@ -12396,7 +12449,7 @@
         <v>284</v>
       </c>
       <c r="J121" s="21" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="K121" s="21" t="s">
         <v>284</v>
@@ -12467,7 +12520,7 @@
         <v>687</v>
       </c>
       <c r="C122" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D122" s="21">
         <v>21</v>
@@ -12484,7 +12537,7 @@
         <v>284</v>
       </c>
       <c r="J122" s="21" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="K122" s="21" t="s">
         <v>284</v>
@@ -12555,7 +12608,7 @@
         <v>50</v>
       </c>
       <c r="C123" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D123" s="21">
         <v>20</v>
@@ -12572,7 +12625,7 @@
         <v>284</v>
       </c>
       <c r="J123" s="21" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="K123" s="21" t="s">
         <v>284</v>
@@ -12643,7 +12696,7 @@
         <v>49</v>
       </c>
       <c r="C124" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D124" s="21">
         <v>19</v>
@@ -12660,7 +12713,7 @@
         <v>284</v>
       </c>
       <c r="J124" s="21" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="K124" s="21" t="s">
         <v>284</v>
@@ -12731,7 +12784,7 @@
         <v>691</v>
       </c>
       <c r="C125" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D125" s="21">
         <v>18</v>
@@ -12748,7 +12801,7 @@
         <v>284</v>
       </c>
       <c r="J125" s="21" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="K125" s="21" t="s">
         <v>284</v>
@@ -12819,7 +12872,7 @@
         <v>45</v>
       </c>
       <c r="C126" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D126" s="21">
         <v>17</v>
@@ -12836,7 +12889,7 @@
         <v>284</v>
       </c>
       <c r="J126" s="21" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="K126" s="21" t="s">
         <v>284</v>
@@ -12907,7 +12960,7 @@
         <v>44</v>
       </c>
       <c r="C127" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D127" s="21">
         <v>16</v>
@@ -12924,7 +12977,7 @@
         <v>284</v>
       </c>
       <c r="J127" s="21" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="K127" s="21" t="s">
         <v>284</v>
@@ -12995,7 +13048,7 @@
         <v>698</v>
       </c>
       <c r="C128" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D128" s="21">
         <v>15</v>
@@ -13012,7 +13065,7 @@
         <v>284</v>
       </c>
       <c r="J128" s="21" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="K128" s="21" t="s">
         <v>284</v>
@@ -13083,7 +13136,7 @@
         <v>41</v>
       </c>
       <c r="C129" s="21" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D129" s="21">
         <v>14</v>
@@ -13102,7 +13155,7 @@
         <v>284</v>
       </c>
       <c r="J129" s="21" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="K129" s="21" t="s">
         <v>284</v>
@@ -13875,7 +13928,7 @@
         <v>752</v>
       </c>
       <c r="J139" s="21" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="K139" s="21" t="s">
         <v>284</v>
@@ -13963,7 +14016,7 @@
         <v>762</v>
       </c>
       <c r="J140" s="21" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="K140" s="21" t="s">
         <v>284</v>
@@ -14544,7 +14597,7 @@
         <v>5</v>
       </c>
       <c r="E148" s="21" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="F148" s="21"/>
       <c r="G148" s="21"/>
@@ -14630,7 +14683,7 @@
         <v>3</v>
       </c>
       <c r="E149" s="21" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="F149" s="21"/>
       <c r="G149" s="21"/>
@@ -14716,7 +14769,7 @@
         <v>7</v>
       </c>
       <c r="E150" s="21" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="F150" s="21"/>
       <c r="G150" s="21"/>
@@ -14802,7 +14855,7 @@
         <v>8</v>
       </c>
       <c r="E151" s="21" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="F151" s="21"/>
       <c r="G151" s="21"/>
@@ -14886,7 +14939,7 @@
         <v>1</v>
       </c>
       <c r="E152" s="21" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="F152" s="21"/>
       <c r="G152" s="21"/>
@@ -14968,7 +15021,7 @@
         <v>2</v>
       </c>
       <c r="E153" s="21" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F153" s="21"/>
       <c r="G153" s="21"/>
@@ -15054,7 +15107,7 @@
         <v>10</v>
       </c>
       <c r="E154" s="21" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="F154" s="21"/>
       <c r="G154" s="21"/>
@@ -15140,7 +15193,7 @@
         <v>9</v>
       </c>
       <c r="E155" s="21" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="F155" s="21"/>
       <c r="G155" s="21"/>
@@ -15330,12 +15383,14 @@
         <v>840</v>
       </c>
       <c r="C159" s="21" t="s">
-        <v>940</v>
+        <v>1055</v>
       </c>
       <c r="D159" s="21">
         <v>2</v>
       </c>
-      <c r="E159" s="21"/>
+      <c r="E159" s="21" t="s">
+        <v>1056</v>
+      </c>
       <c r="F159" s="21">
         <v>1</v>
       </c>
@@ -15348,7 +15403,9 @@
       <c r="I159" s="21" t="s">
         <v>839</v>
       </c>
-      <c r="J159" s="21"/>
+      <c r="J159" s="21" t="s">
+        <v>1061</v>
+      </c>
       <c r="K159" s="21" t="s">
         <v>841</v>
       </c>
@@ -15418,12 +15475,14 @@
         <v>843</v>
       </c>
       <c r="C160" s="21" t="s">
-        <v>940</v>
+        <v>1055</v>
       </c>
       <c r="D160" s="21">
         <v>4</v>
       </c>
-      <c r="E160" s="21"/>
+      <c r="E160" s="21" t="s">
+        <v>1057</v>
+      </c>
       <c r="F160" s="21">
         <v>1</v>
       </c>
@@ -15436,7 +15495,9 @@
       <c r="I160" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="J160" s="21"/>
+      <c r="J160" s="21" t="s">
+        <v>1060</v>
+      </c>
       <c r="K160" s="21" t="s">
         <v>844</v>
       </c>
@@ -15734,11 +15795,11 @@
         <v>853</v>
       </c>
       <c r="C167" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D167" s="21"/>
       <c r="E167" s="21" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F167" s="21"/>
       <c r="G167" s="21"/>
@@ -15818,12 +15879,14 @@
         <v>856</v>
       </c>
       <c r="C168" s="21" t="s">
-        <v>940</v>
+        <v>1055</v>
       </c>
       <c r="D168" s="21">
         <v>6</v>
       </c>
-      <c r="E168" s="21"/>
+      <c r="E168" s="21" t="s">
+        <v>1054</v>
+      </c>
       <c r="F168" s="21">
         <v>1</v>
       </c>
@@ -15836,7 +15899,9 @@
       <c r="I168" s="21" t="s">
         <v>855</v>
       </c>
-      <c r="J168" s="21"/>
+      <c r="J168" s="21" t="s">
+        <v>1059</v>
+      </c>
       <c r="K168" s="21" t="s">
         <v>857</v>
       </c>
@@ -15906,12 +15971,14 @@
         <v>859</v>
       </c>
       <c r="C169" s="21" t="s">
-        <v>940</v>
+        <v>1055</v>
       </c>
       <c r="D169" s="21">
         <v>8</v>
       </c>
-      <c r="E169" s="21"/>
+      <c r="E169" s="21" t="s">
+        <v>1053</v>
+      </c>
       <c r="F169" s="21">
         <v>1</v>
       </c>
@@ -15924,7 +15991,9 @@
       <c r="I169" s="21" t="s">
         <v>858</v>
       </c>
-      <c r="J169" s="21"/>
+      <c r="J169" s="21" t="s">
+        <v>1058</v>
+      </c>
       <c r="K169" s="21" t="s">
         <v>860</v>
       </c>
@@ -15994,12 +16063,14 @@
         <v>861</v>
       </c>
       <c r="C170" s="21" t="s">
-        <v>940</v>
+        <v>1055</v>
       </c>
       <c r="D170" s="21">
         <v>10</v>
       </c>
-      <c r="E170" s="21"/>
+      <c r="E170" s="21" t="s">
+        <v>1052</v>
+      </c>
       <c r="F170" s="21" t="s">
         <v>284</v>
       </c>
@@ -16082,12 +16153,14 @@
         <v>864</v>
       </c>
       <c r="C171" s="21" t="s">
-        <v>940</v>
+        <v>1055</v>
       </c>
       <c r="D171" s="21">
-        <v>9</v>
-      </c>
-      <c r="E171" s="21"/>
+        <v>12</v>
+      </c>
+      <c r="E171" s="21" t="s">
+        <v>1051</v>
+      </c>
       <c r="F171" s="21" t="s">
         <v>284</v>
       </c>
@@ -16100,7 +16173,9 @@
       <c r="I171" s="21" t="s">
         <v>863</v>
       </c>
-      <c r="J171" s="21"/>
+      <c r="J171" s="21" t="s">
+        <v>1042</v>
+      </c>
       <c r="K171" s="21" t="s">
         <v>865</v>
       </c>
@@ -16170,12 +16245,14 @@
         <v>33</v>
       </c>
       <c r="C172" s="21" t="s">
-        <v>940</v>
+        <v>1055</v>
       </c>
       <c r="D172" s="21">
-        <v>7</v>
-      </c>
-      <c r="E172" s="21"/>
+        <v>14</v>
+      </c>
+      <c r="E172" s="21" t="s">
+        <v>1050</v>
+      </c>
       <c r="F172" s="21" t="s">
         <v>284</v>
       </c>
@@ -16188,7 +16265,9 @@
       <c r="I172" s="21" t="s">
         <v>867</v>
       </c>
-      <c r="J172" s="21"/>
+      <c r="J172" s="21" t="s">
+        <v>1041</v>
+      </c>
       <c r="K172" s="21" t="s">
         <v>868</v>
       </c>
@@ -16258,12 +16337,14 @@
         <v>870</v>
       </c>
       <c r="C173" s="21" t="s">
-        <v>940</v>
+        <v>1055</v>
       </c>
       <c r="D173" s="21">
-        <v>5</v>
-      </c>
-      <c r="E173" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="E173" s="21" t="s">
+        <v>1049</v>
+      </c>
       <c r="F173" s="21" t="s">
         <v>284</v>
       </c>
@@ -16276,7 +16357,9 @@
       <c r="I173" s="21" t="s">
         <v>869</v>
       </c>
-      <c r="J173" s="21"/>
+      <c r="J173" s="21" t="s">
+        <v>1040</v>
+      </c>
       <c r="K173" s="21" t="s">
         <v>871</v>
       </c>
@@ -16346,12 +16429,14 @@
         <v>872</v>
       </c>
       <c r="C174" s="21" t="s">
-        <v>940</v>
+        <v>1055</v>
       </c>
       <c r="D174" s="21">
-        <v>3</v>
-      </c>
-      <c r="E174" s="21"/>
+        <v>18</v>
+      </c>
+      <c r="E174" s="21" t="s">
+        <v>1048</v>
+      </c>
       <c r="F174" s="21" t="s">
         <v>284</v>
       </c>
@@ -16434,12 +16519,14 @@
         <v>875</v>
       </c>
       <c r="C175" s="21" t="s">
-        <v>940</v>
+        <v>1055</v>
       </c>
       <c r="D175" s="21">
-        <v>1</v>
-      </c>
-      <c r="E175" s="21"/>
+        <v>20</v>
+      </c>
+      <c r="E175" s="21" t="s">
+        <v>1047</v>
+      </c>
       <c r="F175" s="21" t="s">
         <v>284</v>
       </c>
@@ -16452,7 +16539,9 @@
       <c r="I175" s="21" t="s">
         <v>874</v>
       </c>
-      <c r="J175" s="21"/>
+      <c r="J175" s="21" t="s">
+        <v>1039</v>
+      </c>
       <c r="K175" s="21" t="s">
         <v>876</v>
       </c>
@@ -16527,7 +16616,9 @@
       <c r="D176" s="21">
         <v>1</v>
       </c>
-      <c r="E176" s="21"/>
+      <c r="E176" s="21" t="s">
+        <v>1046</v>
+      </c>
       <c r="F176" s="21" t="s">
         <v>284</v>
       </c>
@@ -16540,7 +16631,9 @@
       <c r="I176" s="21" t="s">
         <v>877</v>
       </c>
-      <c r="J176" s="21"/>
+      <c r="J176" s="21" t="s">
+        <v>1044</v>
+      </c>
       <c r="K176" s="21" t="s">
         <v>879</v>
       </c>
@@ -16615,7 +16708,9 @@
       <c r="D177" s="21">
         <v>2</v>
       </c>
-      <c r="E177" s="21"/>
+      <c r="E177" s="21" t="s">
+        <v>1045</v>
+      </c>
       <c r="F177" s="21" t="s">
         <v>284</v>
       </c>
@@ -16628,7 +16723,9 @@
       <c r="I177" s="21" t="s">
         <v>880</v>
       </c>
-      <c r="J177" s="21"/>
+      <c r="J177" s="21" t="s">
+        <v>1043</v>
+      </c>
       <c r="K177" s="21" t="s">
         <v>881</v>
       </c>
@@ -16774,11 +16871,11 @@
         <v>882</v>
       </c>
       <c r="C180" s="21" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D180" s="21"/>
       <c r="E180" s="21" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="F180" s="21"/>
       <c r="G180" s="21"/>
@@ -17413,7 +17510,7 @@
       <c r="G236" s="42"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AD184">
+  <sortState ref="A5:AD184">
     <sortCondition ref="A5:A184"/>
     <sortCondition ref="D5:D184"/>
   </sortState>
@@ -23206,7 +23303,7 @@
         <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E88" t="s">
         <v>284</v>
@@ -23976,7 +24073,7 @@
         <v>83</v>
       </c>
       <c r="D98" s="49" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E98" t="s">
         <v>367</v>
@@ -24208,7 +24305,7 @@
         <v>40</v>
       </c>
       <c r="D101" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E101" t="s">
         <v>284</v>
@@ -24288,7 +24385,7 @@
         <v>39</v>
       </c>
       <c r="D102" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E102" t="s">
         <v>284</v>
@@ -24368,7 +24465,7 @@
         <v>7</v>
       </c>
       <c r="D103" s="49" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E103" t="s">
         <v>611</v>
@@ -25052,7 +25149,7 @@
         <v>97</v>
       </c>
       <c r="D112" s="49" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E112" t="s">
         <v>379</v>
@@ -26042,7 +26139,7 @@
         <v>110</v>
       </c>
       <c r="D125" s="49" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E125" t="s">
         <v>379</v>
@@ -27015,7 +27112,7 @@
         <v>123</v>
       </c>
       <c r="D138" s="49" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E138" t="s">
         <v>379</v>
@@ -27324,7 +27421,7 @@
         <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E142" t="s">
         <v>284</v>
@@ -27404,7 +27501,7 @@
         <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E143" t="s">
         <v>284</v>
@@ -27638,7 +27735,7 @@
         <v>6</v>
       </c>
       <c r="D146" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E146" t="s">
         <v>284</v>
@@ -27718,7 +27815,7 @@
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E147" t="s">
         <v>284</v>
@@ -28316,7 +28413,7 @@
         <v>5</v>
       </c>
       <c r="D155" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="E155" t="s">
         <v>284</v>
@@ -28396,7 +28493,7 @@
         <v>3</v>
       </c>
       <c r="D156" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="E156" t="s">
         <v>284</v>
@@ -28476,7 +28573,7 @@
         <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="E157" t="s">
         <v>284</v>
@@ -28556,7 +28653,7 @@
         <v>8</v>
       </c>
       <c r="D158" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="E158" t="s">
         <v>284</v>
@@ -28633,7 +28730,7 @@
         <v>1</v>
       </c>
       <c r="D159" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E159" t="s">
         <v>284</v>
@@ -28707,7 +28804,7 @@
         <v>2</v>
       </c>
       <c r="D160" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="E160" t="s">
         <v>284</v>
@@ -28787,7 +28884,7 @@
         <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="E161" t="s">
         <v>284</v>
@@ -28867,7 +28964,7 @@
         <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="E162" t="s">
         <v>284</v>
@@ -28941,7 +29038,7 @@
         <v>148</v>
       </c>
       <c r="D163" s="49" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E163" t="s">
         <v>838</v>
@@ -29322,7 +29419,7 @@
         <v>153</v>
       </c>
       <c r="D168" s="49" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E168" t="s">
         <v>846</v>
@@ -29774,7 +29871,7 @@
         <v>159</v>
       </c>
       <c r="D174" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="E174" t="s">
         <v>284</v>
@@ -30621,7 +30718,7 @@
         <v>170</v>
       </c>
       <c r="D185" s="49" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="E185" t="s">
         <v>367</v>
@@ -30773,7 +30870,7 @@
         <v>172</v>
       </c>
       <c r="D187" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="E187" t="s">
         <v>284</v>
@@ -31160,6 +31257,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:I3"/>
@@ -31176,14 +31281,6 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/S7G2_Titan/2022_Nov_03_MD_Controller_IO_Map_32_bit_S7G2_Titan_Teknic_Motors.xlsx
+++ b/S7G2_Titan/2022_Nov_03_MD_Controller_IO_Map_32_bit_S7G2_Titan_Teknic_Motors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20391"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C78E4D7-6EE1-429B-81F1-5BFA93A7160A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B9DB3C-2F94-4E2F-9284-30312C2C64C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="1103" windowWidth="28995" windowHeight="15795" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller Headers" sheetId="13" r:id="rId1"/>
@@ -23,6 +23,19 @@
     <sheet name="X_Y axis speed calcs" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3988,8 +4001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9ED81-804C-4EFA-84D0-1A12C997A3D1}">
   <dimension ref="A3:AD236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A172" sqref="A172:XFD172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -4000,12 +4013,12 @@
     <col min="4" max="4" width="5.796875" style="20" customWidth="1"/>
     <col min="5" max="5" width="15.53125" style="20" customWidth="1"/>
     <col min="6" max="7" width="6.6640625" style="20" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" style="20" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.1328125" style="20" customWidth="1"/>
     <col min="9" max="9" width="9.06640625" style="20"/>
-    <col min="10" max="10" width="53.59765625" style="20" customWidth="1"/>
-    <col min="11" max="16" width="0" style="20" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.265625" style="20" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="0" style="20" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="16.6640625" style="20" customWidth="1"/>
+    <col min="11" max="16" width="9.06640625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="12.265625" style="20" customWidth="1"/>
+    <col min="18" max="18" width="9.06640625" style="20" customWidth="1"/>
     <col min="19" max="19" width="14.1328125" style="20" customWidth="1"/>
     <col min="20" max="20" width="13" style="20" customWidth="1"/>
     <col min="21" max="21" width="11.59765625" style="20" customWidth="1"/>
@@ -17510,7 +17523,7 @@
       <c r="G236" s="42"/>
     </row>
   </sheetData>
-  <sortState ref="A5:AD184">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:AD184">
     <sortCondition ref="A5:A184"/>
     <sortCondition ref="D5:D184"/>
   </sortState>
@@ -31257,14 +31270,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:I3"/>
@@ -31281,6 +31286,14 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/S7G2_Titan/2022_Nov_03_MD_Controller_IO_Map_32_bit_S7G2_Titan_Teknic_Motors.xlsx
+++ b/S7G2_Titan/2022_Nov_03_MD_Controller_IO_Map_32_bit_S7G2_Titan_Teknic_Motors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\GitHub\32-bit-controller\S7G2_Titan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8B9DB3C-2F94-4E2F-9284-30312C2C64C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDE3B7B-6EA5-486C-B231-A50A749825CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" tabRatio="516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="503" windowWidth="28996" windowHeight="15794" tabRatio="516" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Controller Headers" sheetId="13" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Misc." sheetId="10" r:id="rId6"/>
     <sheet name="Z-axis Speed Cals" sheetId="2" r:id="rId7"/>
     <sheet name="X_Y axis speed calcs" sheetId="11" r:id="rId8"/>
+    <sheet name="Rack and Pinion" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7793" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7805" uniqueCount="1074">
   <si>
     <t>A</t>
   </si>
@@ -3239,6 +3240,42 @@
   </si>
   <si>
     <t>Thermistor 8</t>
+  </si>
+  <si>
+    <t>Pitch Dia (in)</t>
+  </si>
+  <si>
+    <t>Pitch Dia (mm)</t>
+  </si>
+  <si>
+    <t>Pitch C (mm)</t>
+  </si>
+  <si>
+    <t>Rotation (deg)</t>
+  </si>
+  <si>
+    <t>Arc Length (mm)</t>
+  </si>
+  <si>
+    <t>Force on Gear</t>
+  </si>
+  <si>
+    <t>Load (lbs)</t>
+  </si>
+  <si>
+    <t>Load COG (in)</t>
+  </si>
+  <si>
+    <t>load Torq (ft-lbs)</t>
+  </si>
+  <si>
+    <t>Teeth Torq Arm (mm)</t>
+  </si>
+  <si>
+    <t>Torq Arm (in)</t>
+  </si>
+  <si>
+    <t>Force on Teeth (lbs)</t>
   </si>
 </sst>
 </file>
@@ -3405,7 +3442,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -3541,6 +3578,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Excel Built-in Normal" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -4001,7 +4039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD9ED81-804C-4EFA-84D0-1A12C997A3D1}">
   <dimension ref="A3:AD236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A172" sqref="A172:XFD172"/>
     </sheetView>
   </sheetViews>
@@ -31270,6 +31308,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="D168:D173"/>
+    <mergeCell ref="D185:D186"/>
+    <mergeCell ref="D103:D106"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="D112:D113"/>
+    <mergeCell ref="D125:D127"/>
+    <mergeCell ref="D138:D139"/>
     <mergeCell ref="D83:D87"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="H3:I3"/>
@@ -31286,14 +31332,6 @@
     <mergeCell ref="D48:D50"/>
     <mergeCell ref="D61:D62"/>
     <mergeCell ref="D75:D82"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="D168:D173"/>
-    <mergeCell ref="D185:D186"/>
-    <mergeCell ref="D103:D106"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="D112:D113"/>
-    <mergeCell ref="D125:D127"/>
-    <mergeCell ref="D138:D139"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -33795,4 +33833,121 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1000" verticalDpi="1000" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CD0BF2-DE55-4F66-BEBD-0EBA0E40EC64}">
+  <dimension ref="A10:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B11">
+        <f>B10*25.4</f>
+        <v>406.4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B12" s="55">
+        <f>3.14159*B11</f>
+        <v>1276.742176</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B13">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B14" s="55">
+        <f>(B13/360)*B12</f>
+        <v>319.18554399999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B19">
+        <f>B17*(B18/12)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B20">
+        <f>B11/2</f>
+        <v>203.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B22">
+        <f>B19/(B21/12)</f>
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>